--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_229__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_229__Reeval_Sobol_Modell_1.3.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>78.30769348144531</c:v>
+                  <c:v>78.30768585205078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60.3760871887207</c:v>
@@ -6145,7 +6145,7 @@
                   <c:v>79.15813446044922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.13475036621094</c:v>
+                  <c:v>77.13475799560547</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>70.07425689697266</c:v>
@@ -6175,10 +6175,10 @@
                   <c:v>80.33671569824219</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.74417877197266</c:v>
+                  <c:v>77.74418640136719</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.63275909423828</c:v>
+                  <c:v>51.63276290893555</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>26.63650131225586</c:v>
@@ -6187,7 +6187,7 @@
                   <c:v>54.25163650512695</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.1329345703125</c:v>
+                  <c:v>31.13293075561523</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>80.65198516845703</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>77.58157348632812</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.70738983154297</c:v>
+                  <c:v>79.7073974609375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>77.0780029296875</c:v>
@@ -6229,7 +6229,7 @@
                   <c:v>82.07606506347656</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>72.96138763427734</c:v>
+                  <c:v>72.96139526367188</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>77.31298065185547</c:v>
@@ -6241,10 +6241,10 @@
                   <c:v>75.54826354980469</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>91.34060668945312</c:v>
+                  <c:v>91.34059906005859</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.18682861328125</c:v>
+                  <c:v>82.18683624267578</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>54.22367095947266</c:v>
@@ -6253,19 +6253,19 @@
                   <c:v>79.47703552246094</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>73.83071136474609</c:v>
+                  <c:v>73.83071899414062</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>97.53733062744141</c:v>
+                  <c:v>97.53733825683594</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>46.94117736816406</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>83.63871002197266</c:v>
+                  <c:v>83.63871765136719</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.27200317382812</c:v>
+                  <c:v>20.27199554443359</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>64.90113830566406</c:v>
@@ -6280,16 +6280,16 @@
                   <c:v>78.43807220458984</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>78.14210510253906</c:v>
+                  <c:v>78.14211273193359</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64.88137817382812</c:v>
+                  <c:v>64.88138580322266</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>59.77896499633789</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>62.66432952880859</c:v>
+                  <c:v>62.66433334350586</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>77.91613006591797</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>82.51607513427734</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.73289489746094</c:v>
+                  <c:v>76.73290252685547</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>42.84532928466797</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>89.41383361816406</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>76.03217315673828</c:v>
+                  <c:v>76.03218841552734</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>85.00547790527344</c:v>
@@ -6337,43 +6337,43 @@
                   <c:v>25.82894325256348</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>84.02328491210938</c:v>
+                  <c:v>84.02329254150391</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>74.88784790039062</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>93.43094635009766</c:v>
+                  <c:v>93.43096160888672</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25.08698654174805</c:v>
+                  <c:v>25.08698272705078</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>52.74309539794922</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39.35153198242188</c:v>
+                  <c:v>39.35152816772461</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.57052993774414</c:v>
+                  <c:v>56.57053375244141</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>52.65210342407227</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76.87302398681641</c:v>
+                  <c:v>76.87303161621094</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>84.9312744140625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>75.55596923828125</c:v>
+                  <c:v>75.55597686767578</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.34201431274414</c:v>
+                  <c:v>22.34201240539551</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>24.60811042785645</c:v>
+                  <c:v>24.60810852050781</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>93.24892425537109</c:v>
@@ -6385,10 +6385,10 @@
                   <c:v>96.58811950683594</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>56.02067565917969</c:v>
+                  <c:v>56.02067947387695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>83.03517150878906</c:v>
+                  <c:v>83.03517913818359</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>79.15671539306641</c:v>
@@ -6418,7 +6418,7 @@
                   <c:v>69.00652313232422</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>81.48851776123047</c:v>
+                  <c:v>81.488525390625</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>71.98150634765625</c:v>
@@ -7119,7 +7119,7 @@
         <v>83.8301</v>
       </c>
       <c r="F2">
-        <v>78.30769348144531</v>
+        <v>78.30768585205078</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>83.4324</v>
       </c>
       <c r="F11">
-        <v>77.13475036621094</v>
+        <v>77.13475799560547</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>77.74417877197266</v>
+        <v>77.74418640136719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>51.63275909423828</v>
+        <v>51.63276290893555</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>31.1329345703125</v>
+        <v>31.13293075561523</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>79.70738983154297</v>
+        <v>79.7073974609375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>72.96138763427734</v>
+        <v>72.96139526367188</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>91.34060668945312</v>
+        <v>91.34059906005859</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>82.18682861328125</v>
+        <v>82.18683624267578</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>73.83071136474609</v>
+        <v>73.83071899414062</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>97.53733062744141</v>
+        <v>97.53733825683594</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>83.63871002197266</v>
+        <v>83.63871765136719</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>20.27200317382812</v>
+        <v>20.27199554443359</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>78.14210510253906</v>
+        <v>78.14211273193359</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>64.88137817382812</v>
+        <v>64.88138580322266</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>62.66432952880859</v>
+        <v>62.66433334350586</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>76.6541</v>
       </c>
       <c r="F65">
-        <v>76.73289489746094</v>
+        <v>76.73290252685547</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>76.03217315673828</v>
+        <v>76.03218841552734</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>84.02328491210938</v>
+        <v>84.02329254150391</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>93.43094635009766</v>
+        <v>93.43096160888672</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>25.08698654174805</v>
+        <v>25.08698272705078</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>39.35153198242188</v>
+        <v>39.35152816772461</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>56.57052993774414</v>
+        <v>56.57053375244141</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>76.87302398681641</v>
+        <v>76.87303161621094</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>78.6379</v>
       </c>
       <c r="F85">
-        <v>75.55596923828125</v>
+        <v>75.55597686767578</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>22.34201431274414</v>
+        <v>22.34201240539551</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>24.60811042785645</v>
+        <v>24.60810852050781</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>56.02067565917969</v>
+        <v>56.02067947387695</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>81.0548</v>
       </c>
       <c r="F92">
-        <v>83.03517150878906</v>
+        <v>83.03517913818359</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>80.7841</v>
       </c>
       <c r="F102">
-        <v>81.48851776123047</v>
+        <v>81.488525390625</v>
       </c>
     </row>
     <row r="103" spans="1:6">
